--- a/src/main/resources/dat/Work.temp/results.xlsx
+++ b/src/main/resources/dat/Work.temp/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lapaesleme/Downloads/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lapaesleme/GitHub/KwS/src/main/resources/dat/Work.temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{110DFD87-7EFA-A644-A34F-BA1CCA9F3962}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5532F2FD-7E77-C74E-AABD-D99C93A665CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="4240" windowWidth="28920" windowHeight="14980" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" firstSheet="14" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="26" r:id="rId1"/>
@@ -39,8 +39,13 @@
     <sheet name="047" sheetId="3" r:id="rId24"/>
     <sheet name="048" sheetId="1" r:id="rId25"/>
     <sheet name="049" sheetId="2" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId27"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId29"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1430" uniqueCount="480">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1466" uniqueCount="489">
   <si>
     <t xml:space="preserve"> "sol" </t>
   </si>
@@ -1490,12 +1495,39 @@
   </si>
   <si>
     <t>diminuindo a quantidade de sementes</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recall </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> score </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> size </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of  recall </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1973,10 +2005,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2034,6 +2071,376 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Luiz André P Paes Leme" refreshedDateIso="2019-05-02T10:27:09.25999998115002975" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25" xr:uid="{FA6766EC-5F41-0546-ACFC-835D15CC186A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F26" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="case" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="43" maxValue="48" count="2">
+        <n v="48"/>
+        <n v="43"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="pos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="13" count="13">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name=" &quot;sol&quot; " numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name=" score " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.7444834" maxValue="4.4559949999999997"/>
+    </cacheField>
+    <cacheField name=" size " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name=" recall " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1" count="4">
+        <n v="0"/>
+        <n v="0.16666666666666599"/>
+        <n v="0.83333333333333304"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v=" &quot;urn:graph:kws:048:sol4&quot; "/>
+    <n v="2.6554842000000001"/>
+    <n v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v=" &quot;urn:graph:kws:048:sol5&quot; "/>
+    <n v="2.5678505999999999"/>
+    <n v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v=" &quot;urn:graph:kws:048:sol7&quot; "/>
+    <n v="2.4295372999999998"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v=" &quot;urn:graph:kws:048:sol8&quot; "/>
+    <n v="2.4088612"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v=" &quot;urn:graph:kws:048:sol10&quot; "/>
+    <n v="2.3670377999999999"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <s v=" &quot;urn:graph:kws:048:sol11&quot; "/>
+    <n v="2.3670377999999999"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v=" &quot;urn:graph:kws:048:sol12&quot; "/>
+    <n v="2.3365273000000002"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v=" &quot;urn:graph:kws:048:sol13&quot; "/>
+    <n v="2.3086025999999999"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v=" &quot;urn:graph:kws:048:sol14&quot; "/>
+    <n v="2.2657600000000002"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v=" &quot;urn:graph:kws:048:sol15&quot; "/>
+    <n v="2.2657600000000002"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <s v=" &quot;urn:graph:kws:048:sol16&quot; "/>
+    <n v="2.2525968999999999"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <s v=" &quot;urn:graph:kws:048:sol19&quot; "/>
+    <n v="2.2041542999999999"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <s v=" &quot;urn:graph:kws:048:sol20&quot; "/>
+    <n v="2.2041542999999999"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v=" &quot;urn:graph:kws:043:sol1&quot; "/>
+    <n v="4.4559949999999997"/>
+    <n v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v=" &quot;urn:graph:kws:043:sol2&quot; "/>
+    <n v="4.4250097000000004"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v=" &quot;urn:graph:kws:043:sol3&quot; "/>
+    <n v="4.1875520000000002"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v=" &quot;urn:graph:kws:043:sol4&quot; "/>
+    <n v="3.8802843"/>
+    <n v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v=" &quot;urn:graph:kws:043:sol5&quot; "/>
+    <n v="3.5658202000000001"/>
+    <n v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v=" &quot;urn:graph:kws:043:sol6&quot; "/>
+    <n v="3.4518087"/>
+    <n v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v=" &quot;urn:graph:kws:043:sol7&quot; "/>
+    <n v="3.4518087"/>
+    <n v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v=" &quot;urn:graph:kws:043:sol8&quot; "/>
+    <n v="3.3961736999999999"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v=" &quot;urn:graph:kws:043:sol9&quot; "/>
+    <n v="3.2643876000000001"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v=" &quot;urn:graph:kws:043:sol12&quot; "/>
+    <n v="2.9567192000000002"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <s v=" &quot;urn:graph:kws:043:sol13&quot; "/>
+    <n v="2.9567192000000002"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <s v=" &quot;urn:graph:kws:043:sol15&quot; "/>
+    <n v="1.7444834"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF1139E4-F6A4-7944-BB71-654172268813}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of  recall " fld="5" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2332,7 +2739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2389,7 +2796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2698,10 +3105,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3007,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3078,7 +3485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3303,7 +3710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3430,7 +3837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3543,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3838,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3951,7 +4358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4064,7 +4471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4163,7 +4570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4290,7 +4697,1702 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>414</v>
+      </c>
+      <c r="B18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" t="s">
+        <v>420</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>421</v>
+      </c>
+      <c r="B29" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" t="s">
+        <v>420</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" t="s">
+        <v>424</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" t="s">
+        <v>424</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>322</v>
+      </c>
+      <c r="B37" t="s">
+        <v>424</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>427</v>
+      </c>
+      <c r="B38" t="s">
+        <v>424</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>428</v>
+      </c>
+      <c r="B39" t="s">
+        <v>424</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B40" t="s">
+        <v>424</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>430</v>
+      </c>
+      <c r="B41" t="s">
+        <v>424</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>431</v>
+      </c>
+      <c r="B42" t="s">
+        <v>424</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" t="s">
+        <v>433</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>435</v>
+      </c>
+      <c r="B45" t="s">
+        <v>433</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B46" t="s">
+        <v>433</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>437</v>
+      </c>
+      <c r="B47" t="s">
+        <v>433</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>438</v>
+      </c>
+      <c r="B48" t="s">
+        <v>433</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>439</v>
+      </c>
+      <c r="B49" t="s">
+        <v>433</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>440</v>
+      </c>
+      <c r="B50" t="s">
+        <v>433</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>441</v>
+      </c>
+      <c r="B51" t="s">
+        <v>433</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>442</v>
+      </c>
+      <c r="B52" t="s">
+        <v>443</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>444</v>
+      </c>
+      <c r="B53" t="s">
+        <v>443</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>445</v>
+      </c>
+      <c r="B54" t="s">
+        <v>443</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>446</v>
+      </c>
+      <c r="B55" t="s">
+        <v>443</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>447</v>
+      </c>
+      <c r="B56" t="s">
+        <v>443</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>448</v>
+      </c>
+      <c r="B57" t="s">
+        <v>443</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>449</v>
+      </c>
+      <c r="B58" t="s">
+        <v>450</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>451</v>
+      </c>
+      <c r="B59" t="s">
+        <v>450</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" t="s">
+        <v>450</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>453</v>
+      </c>
+      <c r="B61" t="s">
+        <v>454</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>455</v>
+      </c>
+      <c r="B62" t="s">
+        <v>456</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>457</v>
+      </c>
+      <c r="B63" t="s">
+        <v>456</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>458</v>
+      </c>
+      <c r="B64" t="s">
+        <v>459</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>460</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>461</v>
+      </c>
+      <c r="B65" t="s">
+        <v>462</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>460</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>463</v>
+      </c>
+      <c r="B66" t="s">
+        <v>462</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" t="s">
+        <v>460</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>464</v>
+      </c>
+      <c r="B67" t="s">
+        <v>462</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>460</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>465</v>
+      </c>
+      <c r="B68" t="s">
+        <v>466</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>460</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>467</v>
+      </c>
+      <c r="B69" t="s">
+        <v>466</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>460</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>468</v>
+      </c>
+      <c r="B70" t="s">
+        <v>466</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>460</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>469</v>
+      </c>
+      <c r="B71" t="s">
+        <v>466</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" t="s">
+        <v>460</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>470</v>
+      </c>
+      <c r="B72" t="s">
+        <v>466</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>460</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B73" t="s">
+        <v>466</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>460</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>472</v>
+      </c>
+      <c r="B74" t="s">
+        <v>466</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>460</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>473</v>
+      </c>
+      <c r="B75" t="s">
+        <v>466</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>460</v>
+      </c>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>474</v>
+      </c>
+      <c r="B76" t="s">
+        <v>466</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" t="s">
+        <v>460</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>475</v>
+      </c>
+      <c r="B77" t="s">
+        <v>476</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>460</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>477</v>
+      </c>
+      <c r="B78" t="s">
+        <v>478</v>
+      </c>
+      <c r="C78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" t="s">
+        <v>460</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E17:E78"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4315,10 +6417,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -4329,13 +6431,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4343,13 +6445,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -4357,10 +6459,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -4371,10 +6473,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -4385,13 +6487,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -4399,13 +6501,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -4413,13 +6515,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -4427,10 +6529,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -4441,10 +6543,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -4455,13 +6557,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4469,10 +6571,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -4486,8 +6588,1517 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>409</v>
+      </c>
+      <c r="B13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E11:F18"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E140CC-82B5-9740-8399-621A4D4E8559}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2">
+        <v>2.6554842000000001</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3">
+        <v>2.5678505999999999</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4">
+        <v>2.4295372999999998</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5">
+        <v>2.4088612</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6">
+        <v>2.3670377999999999</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7">
+        <v>2.3670377999999999</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>2.3365273000000002</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9">
+        <v>2.3086025999999999</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10">
+        <v>2.2657600000000002</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11">
+        <v>2.2657600000000002</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12">
+        <v>2.2525968999999999</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13">
+        <v>2.2041542999999999</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14">
+        <v>2.2041542999999999</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15">
+        <v>4.4559949999999997</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16">
+        <v>4.4250097000000004</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17">
+        <v>4.1875520000000002</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18">
+        <v>3.8802843</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19">
+        <v>3.5658202000000001</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20">
+        <v>3.4518087</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21">
+        <v>3.4518087</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22">
+        <v>3.3961736999999999</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23">
+        <v>3.2643876000000001</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24">
+        <v>2.9567192000000002</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25">
+        <v>2.9567192000000002</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26">
+        <v>1.7444834</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20546DE7-2A99-1E43-BA8F-AFAEADA1AADC}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.91666666666666652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.59999999999999976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4512,24 +8123,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4540,13 +8151,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -4557,1141 +8168,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>321</v>
-      </c>
-      <c r="B12" t="s">
-        <v>316</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>414</v>
-      </c>
-      <c r="B18" t="s">
-        <v>415</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B19" t="s">
-        <v>417</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>418</v>
-      </c>
-      <c r="B20" t="s">
-        <v>417</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>307</v>
-      </c>
-      <c r="B21" t="s">
-        <v>417</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B22" t="s">
-        <v>419</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>311</v>
-      </c>
-      <c r="B24" t="s">
-        <v>419</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>313</v>
-      </c>
-      <c r="B25" t="s">
-        <v>420</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" t="s">
-        <v>420</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>317</v>
-      </c>
-      <c r="B27" t="s">
-        <v>420</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B28" t="s">
-        <v>420</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>421</v>
-      </c>
-      <c r="B29" t="s">
-        <v>420</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>319</v>
-      </c>
-      <c r="B30" t="s">
-        <v>420</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>320</v>
-      </c>
-      <c r="B31" t="s">
-        <v>420</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>422</v>
-      </c>
-      <c r="B32" t="s">
-        <v>420</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>423</v>
-      </c>
-      <c r="B33" t="s">
-        <v>420</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>321</v>
-      </c>
-      <c r="B34" t="s">
-        <v>424</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>425</v>
-      </c>
-      <c r="B35" t="s">
-        <v>424</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>426</v>
-      </c>
-      <c r="B36" t="s">
-        <v>424</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>322</v>
-      </c>
-      <c r="B37" t="s">
-        <v>424</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>427</v>
-      </c>
-      <c r="B38" t="s">
-        <v>424</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>428</v>
-      </c>
-      <c r="B39" t="s">
-        <v>424</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>429</v>
-      </c>
-      <c r="B40" t="s">
-        <v>424</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>430</v>
-      </c>
-      <c r="B41" t="s">
-        <v>424</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>431</v>
-      </c>
-      <c r="B42" t="s">
-        <v>424</v>
-      </c>
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>432</v>
-      </c>
-      <c r="B43" t="s">
-        <v>433</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>434</v>
-      </c>
-      <c r="B44" t="s">
-        <v>433</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>435</v>
-      </c>
-      <c r="B45" t="s">
-        <v>433</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>436</v>
-      </c>
-      <c r="B46" t="s">
-        <v>433</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>437</v>
-      </c>
-      <c r="B47" t="s">
-        <v>433</v>
-      </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>438</v>
-      </c>
-      <c r="B48" t="s">
-        <v>433</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>439</v>
-      </c>
-      <c r="B49" t="s">
-        <v>433</v>
-      </c>
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>440</v>
-      </c>
-      <c r="B50" t="s">
-        <v>433</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>441</v>
-      </c>
-      <c r="B51" t="s">
-        <v>433</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>442</v>
-      </c>
-      <c r="B52" t="s">
-        <v>443</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>444</v>
-      </c>
-      <c r="B53" t="s">
-        <v>443</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>445</v>
-      </c>
-      <c r="B54" t="s">
-        <v>443</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>446</v>
-      </c>
-      <c r="B55" t="s">
-        <v>443</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>447</v>
-      </c>
-      <c r="B56" t="s">
-        <v>443</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>448</v>
-      </c>
-      <c r="B57" t="s">
-        <v>443</v>
-      </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>449</v>
-      </c>
-      <c r="B58" t="s">
-        <v>450</v>
-      </c>
-      <c r="C58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>451</v>
-      </c>
-      <c r="B59" t="s">
-        <v>450</v>
-      </c>
-      <c r="C59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>452</v>
-      </c>
-      <c r="B60" t="s">
-        <v>450</v>
-      </c>
-      <c r="C60" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>453</v>
-      </c>
-      <c r="B61" t="s">
-        <v>454</v>
-      </c>
-      <c r="C61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>455</v>
-      </c>
-      <c r="B62" t="s">
-        <v>456</v>
-      </c>
-      <c r="C62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>457</v>
-      </c>
-      <c r="B63" t="s">
-        <v>456</v>
-      </c>
-      <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>458</v>
-      </c>
-      <c r="B64" t="s">
-        <v>459</v>
-      </c>
-      <c r="C64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" t="s">
-        <v>460</v>
-      </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>461</v>
-      </c>
-      <c r="B65" t="s">
-        <v>462</v>
-      </c>
-      <c r="C65" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" t="s">
-        <v>460</v>
-      </c>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>463</v>
-      </c>
-      <c r="B66" t="s">
-        <v>462</v>
-      </c>
-      <c r="C66" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" t="s">
-        <v>460</v>
-      </c>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>464</v>
-      </c>
-      <c r="B67" t="s">
-        <v>462</v>
-      </c>
-      <c r="C67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" t="s">
-        <v>460</v>
-      </c>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>465</v>
-      </c>
-      <c r="B68" t="s">
-        <v>466</v>
-      </c>
-      <c r="C68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" t="s">
-        <v>460</v>
-      </c>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>467</v>
-      </c>
-      <c r="B69" t="s">
-        <v>466</v>
-      </c>
-      <c r="C69" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" t="s">
-        <v>460</v>
-      </c>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>468</v>
-      </c>
-      <c r="B70" t="s">
-        <v>466</v>
-      </c>
-      <c r="C70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" t="s">
-        <v>460</v>
-      </c>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>469</v>
-      </c>
-      <c r="B71" t="s">
-        <v>466</v>
-      </c>
-      <c r="C71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" t="s">
-        <v>460</v>
-      </c>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>470</v>
-      </c>
-      <c r="B72" t="s">
-        <v>466</v>
-      </c>
-      <c r="C72" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" t="s">
-        <v>460</v>
-      </c>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>471</v>
-      </c>
-      <c r="B73" t="s">
-        <v>466</v>
-      </c>
-      <c r="C73" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" t="s">
-        <v>460</v>
-      </c>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>472</v>
-      </c>
-      <c r="B74" t="s">
-        <v>466</v>
-      </c>
-      <c r="C74" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" t="s">
-        <v>460</v>
-      </c>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>473</v>
-      </c>
-      <c r="B75" t="s">
-        <v>466</v>
-      </c>
-      <c r="C75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" t="s">
-        <v>460</v>
-      </c>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>474</v>
-      </c>
-      <c r="B76" t="s">
-        <v>466</v>
-      </c>
-      <c r="C76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" t="s">
-        <v>460</v>
-      </c>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>475</v>
-      </c>
-      <c r="B77" t="s">
-        <v>476</v>
-      </c>
-      <c r="C77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" t="s">
-        <v>460</v>
-      </c>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>477</v>
-      </c>
-      <c r="B78" t="s">
-        <v>478</v>
-      </c>
-      <c r="C78" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" t="s">
-        <v>460</v>
-      </c>
-      <c r="E78" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E17:E78"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -5715,13 +8194,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5729,13 +8208,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -5743,13 +8222,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -5757,13 +8236,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -5771,10 +8250,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -5785,13 +8264,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -5799,183 +8278,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>343</v>
-      </c>
-      <c r="B17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>345</v>
-      </c>
-      <c r="B18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>349</v>
-      </c>
-      <c r="B20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5984,9 +8295,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -6010,24 +8321,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -6038,141 +8349,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>358</v>
-      </c>
-      <c r="B6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>370</v>
-      </c>
-      <c r="B12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6181,12 +8366,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6207,13 +8392,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6221,13 +8406,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6235,10 +8420,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -6249,142 +8434,156 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>409</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>411</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>412</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>410</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>411</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6392,268 +8591,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>376</v>
-      </c>
-      <c r="B13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>384</v>
-      </c>
-      <c r="B17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B18" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E11:F18"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6678,852 +8617,6 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
         <v>92</v>
       </c>
       <c r="B2" t="s">
